--- a/ModeloFisico.xlsx
+++ b/ModeloFisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\SPMedicalGroup_SenaiTarde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC08276A-6FC4-44F3-83C7-A1F7697163D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF91AD1-0BB7-43DE-A3AB-1D9765C3C611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12552" windowHeight="5640" xr2:uid="{31BBDF00-7A0F-4F3B-B446-50645A02F08D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Sexo</t>
-  </si>
-  <si>
     <t>CPF</t>
   </si>
   <si>
@@ -81,39 +78,15 @@
     <t>Bairro</t>
   </si>
   <si>
-    <t>Complemento</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
     <t>Isa</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>isa</t>
   </si>
   <si>
-    <t>casa</t>
-  </si>
-  <si>
-    <t>não defe</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>Vini</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>vini</t>
-  </si>
-  <si>
     <t>la</t>
   </si>
   <si>
@@ -211,13 +184,73 @@
   </si>
   <si>
     <t>IdProntuario</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>IdPaciente</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>isa@</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>bella</t>
+  </si>
+  <si>
+    <t>silva</t>
+  </si>
+  <si>
+    <t>IdTipoUsu</t>
+  </si>
+  <si>
+    <t>alves</t>
+  </si>
+  <si>
+    <t>is@</t>
+  </si>
+  <si>
+    <t>bb@</t>
+  </si>
+  <si>
+    <t>cc@</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>IdEndereco</t>
+  </si>
+  <si>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>vila</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>sp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +258,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +348,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -309,26 +370,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,17 +406,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,16 +732,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C8734C-D450-41A2-B094-D5188CDE02FB}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
@@ -679,494 +751,446 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="D1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1111</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1111</v>
+      </c>
+      <c r="J3" s="2">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44090</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2222</v>
+      </c>
+      <c r="I5" s="2">
+        <v>22222</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2222</v>
+      </c>
+      <c r="K5" s="4">
+        <v>39894</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="M9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="O9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="4" t="s">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43973</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1111</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44083</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2222</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43956</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="5">
+        <v>333</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="I15" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1111</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1111</v>
-      </c>
-      <c r="J3" s="4">
-        <v>111</v>
-      </c>
-      <c r="K3" s="5">
-        <v>44090</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="4">
-        <v>123</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1111</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="4">
-        <v>111</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2222</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2222</v>
-      </c>
-      <c r="I5" s="4">
-        <v>22222</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2222</v>
-      </c>
-      <c r="K5" s="6">
-        <v>39894</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="4">
-        <v>444</v>
-      </c>
-      <c r="N5" s="4">
-        <v>3333</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>43973</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>3</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1111</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="8">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>44083</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="8">
-        <v>2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8">
-        <v>3</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="8">
-        <v>2222</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O11" s="8">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>43956</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8">
-        <v>3</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8">
-        <v>3</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="8">
-        <v>333</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="8">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="D14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>1111</v>
@@ -1175,7 +1199,7 @@
         <v>1111</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1183,69 +1207,253 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="10">
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
-        <v>2</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
-        <v>3</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="F21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>222</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
+      <c r="H25" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25">
+        <v>333</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <v>11111111</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>222222</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>3333333</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A28:F28"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:O1"/>
@@ -1254,7 +1462,16 @@
     <mergeCell ref="H8:O8"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="D14:M14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:J21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{38A280A8-3CEE-4B22-A7B1-4973952804C4}"/>
+    <hyperlink ref="H23" r:id="rId2" xr:uid="{98257AB7-2510-4E85-B78C-A06A10C7C2ED}"/>
+    <hyperlink ref="H24" r:id="rId3" xr:uid="{77B1E520-3E48-450F-B713-971E3F6FF2E3}"/>
+    <hyperlink ref="H25" r:id="rId4" xr:uid="{DAF7AF2D-2A92-45B1-B90D-4F7765B05B33}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>